--- a/2-Electrical/0 - Development Drawings/1 - Main Board/2 - eeBOM/PurchaseBOM_forALLPCB.xlsx
+++ b/2-Electrical/0 - Development Drawings/1 - Main Board/2 - eeBOM/PurchaseBOM_forALLPCB.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="149">
   <si>
     <t>Value</t>
   </si>
@@ -487,6 +487,9 @@
   </si>
   <si>
     <t>Please price this BOM for 30pcs and for 50pcs board quantity</t>
+  </si>
+  <si>
+    <t>PCA9555PW,118</t>
   </si>
 </sst>
 </file>
@@ -836,8 +839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1620,7 +1623,7 @@
         <v>120</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>120</v>
+        <v>148</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>121</v>
